--- a/natmiOut/YoungD2/LR-pairs_lrc2p/Dll4-Notch2.xlsx
+++ b/natmiOut/YoungD2/LR-pairs_lrc2p/Dll4-Notch2.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="28">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -79,9 +79,15 @@
     <t>ECs</t>
   </si>
   <si>
+    <t>FAPs</t>
+  </si>
+  <si>
     <t>M2</t>
   </si>
   <si>
+    <t>Neutro</t>
+  </si>
+  <si>
     <t>sCs</t>
   </si>
   <si>
@@ -91,13 +97,7 @@
     <t>Notch2</t>
   </si>
   <si>
-    <t>FAPs</t>
-  </si>
-  <si>
     <t>M1</t>
-  </si>
-  <si>
-    <t>Neutro</t>
   </si>
 </sst>
 </file>
@@ -455,7 +455,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T19"/>
+  <dimension ref="A1:T31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -528,61 +528,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C2" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D2" t="s">
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>24.687231312658</v>
+        <v>28.06257966666666</v>
       </c>
       <c r="H2">
-        <v>24.687231312658</v>
+        <v>84.18773899999999</v>
       </c>
       <c r="I2">
-        <v>0.9808234200467332</v>
+        <v>0.955675154441775</v>
       </c>
       <c r="J2">
-        <v>0.9808234200467332</v>
+        <v>0.9556751544417748</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>1.03216209631709</v>
+        <v>1.217312</v>
       </c>
       <c r="N2">
-        <v>1.03216209631709</v>
+        <v>3.651936</v>
       </c>
       <c r="O2">
-        <v>0.004692457610613908</v>
+        <v>0.005112503636037949</v>
       </c>
       <c r="P2">
-        <v>0.004692457610613908</v>
+        <v>0.005112503636037948</v>
       </c>
       <c r="Q2">
-        <v>25.48122442393799</v>
+        <v>34.16091497918933</v>
       </c>
       <c r="R2">
-        <v>25.48122442393799</v>
+        <v>307.448234812704</v>
       </c>
       <c r="S2">
-        <v>0.004602472322066655</v>
+        <v>0.004885892701954703</v>
       </c>
       <c r="T2">
-        <v>0.004602472322066655</v>
+        <v>0.004885892701954701</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,61 +590,61 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C3" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D3" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>24.687231312658</v>
+        <v>28.06257966666666</v>
       </c>
       <c r="H3">
-        <v>24.687231312658</v>
+        <v>84.18773899999999</v>
       </c>
       <c r="I3">
-        <v>0.9808234200467332</v>
+        <v>0.955675154441775</v>
       </c>
       <c r="J3">
-        <v>0.9808234200467332</v>
+        <v>0.9556751544417748</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>18.4494487474162</v>
+        <v>18.63494233333333</v>
       </c>
       <c r="N3">
-        <v>18.4494487474162</v>
+        <v>55.904827</v>
       </c>
       <c r="O3">
-        <v>0.08387563978114562</v>
+        <v>0.07826359260117714</v>
       </c>
       <c r="P3">
-        <v>0.08387563978114562</v>
+        <v>0.07826359260117714</v>
       </c>
       <c r="Q3">
-        <v>455.4658088184921</v>
+        <v>522.9445538129058</v>
       </c>
       <c r="R3">
-        <v>455.4658088184921</v>
+        <v>4706.500984316152</v>
       </c>
       <c r="S3">
-        <v>0.08226719186875107</v>
+        <v>0.07479457094629813</v>
       </c>
       <c r="T3">
-        <v>0.08226719186875107</v>
+        <v>0.0747945709462981</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,61 +652,61 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C4" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D4" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>24.687231312658</v>
+        <v>28.06257966666666</v>
       </c>
       <c r="H4">
-        <v>24.687231312658</v>
+        <v>84.18773899999999</v>
       </c>
       <c r="I4">
-        <v>0.9808234200467332</v>
+        <v>0.955675154441775</v>
       </c>
       <c r="J4">
-        <v>0.9808234200467332</v>
+        <v>0.9556751544417748</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>46.5527964767107</v>
+        <v>53.13354766666667</v>
       </c>
       <c r="N4">
-        <v>46.5527964767107</v>
+        <v>159.400643</v>
       </c>
       <c r="O4">
-        <v>0.2116402306400839</v>
+        <v>0.2231518753133371</v>
       </c>
       <c r="P4">
-        <v>0.2116402306400839</v>
+        <v>0.2231518753133371</v>
       </c>
       <c r="Q4">
-        <v>1149.259654871647</v>
+        <v>1491.064414368464</v>
       </c>
       <c r="R4">
-        <v>1149.259654871647</v>
+        <v>13419.57972931618</v>
       </c>
       <c r="S4">
-        <v>0.2075816948358865</v>
+        <v>0.2132607029040451</v>
       </c>
       <c r="T4">
-        <v>0.2075816948358865</v>
+        <v>0.2132607029040451</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -714,61 +714,61 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C5" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D5" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>24.687231312658</v>
+        <v>28.06257966666666</v>
       </c>
       <c r="H5">
-        <v>24.687231312658</v>
+        <v>84.18773899999999</v>
       </c>
       <c r="I5">
-        <v>0.9808234200467332</v>
+        <v>0.955675154441775</v>
       </c>
       <c r="J5">
-        <v>0.9808234200467332</v>
+        <v>0.9556751544417748</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>51.4440376520692</v>
+        <v>52.47529233333334</v>
       </c>
       <c r="N5">
-        <v>51.4440376520692</v>
+        <v>157.425877</v>
       </c>
       <c r="O5">
-        <v>0.2338769916687587</v>
+        <v>0.2203873147199083</v>
       </c>
       <c r="P5">
-        <v>0.2338769916687587</v>
+        <v>0.2203873147199082</v>
       </c>
       <c r="Q5">
-        <v>1270.01085717372</v>
+        <v>1472.592071635789</v>
       </c>
       <c r="R5">
-        <v>1270.01085717372</v>
+        <v>13253.3286447221</v>
       </c>
       <c r="S5">
-        <v>0.2293920308387932</v>
+        <v>0.2106186810319564</v>
       </c>
       <c r="T5">
-        <v>0.2293920308387932</v>
+        <v>0.2106186810319563</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -776,61 +776,61 @@
         <v>20</v>
       </c>
       <c r="B6" t="s">
+        <v>25</v>
+      </c>
+      <c r="C6" t="s">
+        <v>26</v>
+      </c>
+      <c r="D6" t="s">
         <v>23</v>
       </c>
-      <c r="C6" t="s">
-        <v>24</v>
-      </c>
-      <c r="D6" t="s">
-        <v>27</v>
-      </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>24.687231312658</v>
+        <v>28.06257966666666</v>
       </c>
       <c r="H6">
-        <v>24.687231312658</v>
+        <v>84.18773899999999</v>
       </c>
       <c r="I6">
-        <v>0.9808234200467332</v>
+        <v>0.955675154441775</v>
       </c>
       <c r="J6">
-        <v>0.9808234200467332</v>
+        <v>0.9556751544417748</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>81.05561817120351</v>
+        <v>84.82882833333333</v>
       </c>
       <c r="N6">
-        <v>81.05561817120351</v>
+        <v>254.486485</v>
       </c>
       <c r="O6">
-        <v>0.3684983722301228</v>
+        <v>0.3562666705782951</v>
       </c>
       <c r="P6">
-        <v>0.3684983722301228</v>
+        <v>0.3562666705782951</v>
       </c>
       <c r="Q6">
-        <v>2001.038794982986</v>
+        <v>2380.515753134157</v>
       </c>
       <c r="R6">
-        <v>2001.038794982986</v>
+        <v>21424.64177820741</v>
       </c>
       <c r="S6">
-        <v>0.3614318337324031</v>
+        <v>0.3404752054273692</v>
       </c>
       <c r="T6">
-        <v>0.3614318337324031</v>
+        <v>0.3404752054273691</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -838,61 +838,61 @@
         <v>20</v>
       </c>
       <c r="B7" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C7" t="s">
+        <v>26</v>
+      </c>
+      <c r="D7" t="s">
         <v>24</v>
       </c>
-      <c r="D7" t="s">
-        <v>22</v>
-      </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>24.687231312658</v>
+        <v>28.06257966666666</v>
       </c>
       <c r="H7">
-        <v>24.687231312658</v>
+        <v>84.18773899999999</v>
       </c>
       <c r="I7">
-        <v>0.9808234200467332</v>
+        <v>0.955675154441775</v>
       </c>
       <c r="J7">
-        <v>0.9808234200467332</v>
+        <v>0.9556751544417748</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>21.4278804617906</v>
+        <v>27.81494466666667</v>
       </c>
       <c r="N7">
-        <v>21.4278804617906</v>
+        <v>83.444834</v>
       </c>
       <c r="O7">
-        <v>0.09741630806927502</v>
+        <v>0.1168180431512444</v>
       </c>
       <c r="P7">
-        <v>0.09741630806927502</v>
+        <v>0.1168180431512444</v>
       </c>
       <c r="Q7">
-        <v>528.9950415002095</v>
+        <v>780.5591006322584</v>
       </c>
       <c r="R7">
-        <v>528.9950415002095</v>
+        <v>7025.031905690325</v>
       </c>
       <c r="S7">
-        <v>0.0955481964488325</v>
+        <v>0.1116401014301515</v>
       </c>
       <c r="T7">
-        <v>0.0955481964488325</v>
+        <v>0.1116401014301514</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -900,61 +900,61 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C8" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D8" t="s">
         <v>20</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F8">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G8">
-        <v>0.263600763192222</v>
+        <v>0.1730076666666667</v>
       </c>
       <c r="H8">
-        <v>0.263600763192222</v>
+        <v>0.519023</v>
       </c>
       <c r="I8">
-        <v>0.01047285533183945</v>
+        <v>0.005891800772602212</v>
       </c>
       <c r="J8">
-        <v>0.01047285533183945</v>
+        <v>0.005891800772602211</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>1.03216209631709</v>
+        <v>1.217312</v>
       </c>
       <c r="N8">
-        <v>1.03216209631709</v>
+        <v>3.651936</v>
       </c>
       <c r="O8">
-        <v>0.004692457610613908</v>
+        <v>0.005112503636037949</v>
       </c>
       <c r="P8">
-        <v>0.004692457610613908</v>
+        <v>0.005112503636037948</v>
       </c>
       <c r="Q8">
-        <v>0.2720787163272687</v>
+        <v>0.2106043087253333</v>
       </c>
       <c r="R8">
-        <v>0.2720787163272687</v>
+        <v>1.895438778528</v>
       </c>
       <c r="S8">
-        <v>4.914342970674848E-05</v>
+        <v>3.012185287274001E-05</v>
       </c>
       <c r="T8">
-        <v>4.914342970674848E-05</v>
+        <v>3.012185287274E-05</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -962,61 +962,61 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C9" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D9" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F9">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G9">
-        <v>0.263600763192222</v>
+        <v>0.1730076666666667</v>
       </c>
       <c r="H9">
-        <v>0.263600763192222</v>
+        <v>0.519023</v>
       </c>
       <c r="I9">
-        <v>0.01047285533183945</v>
+        <v>0.005891800772602212</v>
       </c>
       <c r="J9">
-        <v>0.01047285533183945</v>
+        <v>0.005891800772602211</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>18.4494487474162</v>
+        <v>18.63494233333333</v>
       </c>
       <c r="N9">
-        <v>18.4494487474162</v>
+        <v>55.904827</v>
       </c>
       <c r="O9">
-        <v>0.08387563978114562</v>
+        <v>0.07826359260117714</v>
       </c>
       <c r="P9">
-        <v>0.08387563978114562</v>
+        <v>0.07826359260117714</v>
       </c>
       <c r="Q9">
-        <v>4.863288770294694</v>
+        <v>3.223987891557889</v>
       </c>
       <c r="R9">
-        <v>4.863288770294694</v>
+        <v>29.015891024021</v>
       </c>
       <c r="S9">
-        <v>0.0008784174412934161</v>
+        <v>0.0004611134953542403</v>
       </c>
       <c r="T9">
-        <v>0.0008784174412934161</v>
+        <v>0.0004611134953542402</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1024,61 +1024,61 @@
         <v>21</v>
       </c>
       <c r="B10" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C10" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D10" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F10">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G10">
-        <v>0.263600763192222</v>
+        <v>0.1730076666666667</v>
       </c>
       <c r="H10">
-        <v>0.263600763192222</v>
+        <v>0.519023</v>
       </c>
       <c r="I10">
-        <v>0.01047285533183945</v>
+        <v>0.005891800772602212</v>
       </c>
       <c r="J10">
-        <v>0.01047285533183945</v>
+        <v>0.005891800772602211</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>46.5527964767107</v>
+        <v>53.13354766666667</v>
       </c>
       <c r="N10">
-        <v>46.5527964767107</v>
+        <v>159.400643</v>
       </c>
       <c r="O10">
-        <v>0.2116402306400839</v>
+        <v>0.2231518753133371</v>
       </c>
       <c r="P10">
-        <v>0.2116402306400839</v>
+        <v>0.2231518753133371</v>
       </c>
       <c r="Q10">
-        <v>12.27135267999312</v>
+        <v>9.192511103532111</v>
       </c>
       <c r="R10">
-        <v>12.27135267999312</v>
+        <v>82.732599931789</v>
       </c>
       <c r="S10">
-        <v>0.002216477517890734</v>
+        <v>0.001314766391378752</v>
       </c>
       <c r="T10">
-        <v>0.002216477517890734</v>
+        <v>0.001314766391378752</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1086,61 +1086,61 @@
         <v>21</v>
       </c>
       <c r="B11" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C11" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D11" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F11">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G11">
-        <v>0.263600763192222</v>
+        <v>0.1730076666666667</v>
       </c>
       <c r="H11">
-        <v>0.263600763192222</v>
+        <v>0.519023</v>
       </c>
       <c r="I11">
-        <v>0.01047285533183945</v>
+        <v>0.005891800772602212</v>
       </c>
       <c r="J11">
-        <v>0.01047285533183945</v>
+        <v>0.005891800772602211</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>51.4440376520692</v>
+        <v>52.47529233333334</v>
       </c>
       <c r="N11">
-        <v>51.4440376520692</v>
+        <v>157.425877</v>
       </c>
       <c r="O11">
-        <v>0.2338769916687587</v>
+        <v>0.2203873147199083</v>
       </c>
       <c r="P11">
-        <v>0.2338769916687587</v>
+        <v>0.2203873147199082</v>
       </c>
       <c r="Q11">
-        <v>13.56068758677484</v>
+        <v>9.078627884241223</v>
       </c>
       <c r="R11">
-        <v>13.56068758677484</v>
+        <v>81.70765095817102</v>
       </c>
       <c r="S11">
-        <v>0.00244935989919273</v>
+        <v>0.001298478151138482</v>
       </c>
       <c r="T11">
-        <v>0.00244935989919273</v>
+        <v>0.001298478151138482</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1148,61 +1148,61 @@
         <v>21</v>
       </c>
       <c r="B12" t="s">
+        <v>25</v>
+      </c>
+      <c r="C12" t="s">
+        <v>26</v>
+      </c>
+      <c r="D12" t="s">
         <v>23</v>
       </c>
-      <c r="C12" t="s">
-        <v>24</v>
-      </c>
-      <c r="D12" t="s">
-        <v>27</v>
-      </c>
       <c r="E12">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F12">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G12">
-        <v>0.263600763192222</v>
+        <v>0.1730076666666667</v>
       </c>
       <c r="H12">
-        <v>0.263600763192222</v>
+        <v>0.519023</v>
       </c>
       <c r="I12">
-        <v>0.01047285533183945</v>
+        <v>0.005891800772602212</v>
       </c>
       <c r="J12">
-        <v>0.01047285533183945</v>
+        <v>0.005891800772602211</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>81.05561817120351</v>
+        <v>84.82882833333333</v>
       </c>
       <c r="N12">
-        <v>81.05561817120351</v>
+        <v>254.486485</v>
       </c>
       <c r="O12">
-        <v>0.3684983722301228</v>
+        <v>0.3562666705782951</v>
       </c>
       <c r="P12">
-        <v>0.3684983722301228</v>
+        <v>0.3562666705782951</v>
       </c>
       <c r="Q12">
-        <v>21.36632281094658</v>
+        <v>14.67603765601722</v>
       </c>
       <c r="R12">
-        <v>21.36632281094658</v>
+        <v>132.084338904155</v>
       </c>
       <c r="S12">
-        <v>0.0038592301423844</v>
+        <v>0.002099052244965617</v>
       </c>
       <c r="T12">
-        <v>0.0038592301423844</v>
+        <v>0.002099052244965617</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1210,61 +1210,61 @@
         <v>21</v>
       </c>
       <c r="B13" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C13" t="s">
+        <v>26</v>
+      </c>
+      <c r="D13" t="s">
         <v>24</v>
       </c>
-      <c r="D13" t="s">
-        <v>22</v>
-      </c>
       <c r="E13">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F13">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G13">
-        <v>0.263600763192222</v>
+        <v>0.1730076666666667</v>
       </c>
       <c r="H13">
-        <v>0.263600763192222</v>
+        <v>0.519023</v>
       </c>
       <c r="I13">
-        <v>0.01047285533183945</v>
+        <v>0.005891800772602212</v>
       </c>
       <c r="J13">
-        <v>0.01047285533183945</v>
+        <v>0.005891800772602211</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>21.4278804617906</v>
+        <v>27.81494466666667</v>
       </c>
       <c r="N13">
-        <v>21.4278804617906</v>
+        <v>83.444834</v>
       </c>
       <c r="O13">
-        <v>0.09741630806927502</v>
+        <v>0.1168180431512444</v>
       </c>
       <c r="P13">
-        <v>0.09741630806927502</v>
+        <v>0.1168180431512444</v>
       </c>
       <c r="Q13">
-        <v>5.648405643319705</v>
+        <v>4.812198675242445</v>
       </c>
       <c r="R13">
-        <v>5.648405643319705</v>
+        <v>43.309788077182</v>
       </c>
       <c r="S13">
-        <v>0.001020226901371421</v>
+        <v>0.0006882686368923805</v>
       </c>
       <c r="T13">
-        <v>0.001020226901371421</v>
+        <v>0.0006882686368923804</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1272,61 +1272,61 @@
         <v>22</v>
       </c>
       <c r="B14" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C14" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D14" t="s">
         <v>20</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14">
-        <v>0.219071913067304</v>
+        <v>0.3203553333333333</v>
       </c>
       <c r="H14">
-        <v>0.219071913067304</v>
+        <v>0.961066</v>
       </c>
       <c r="I14">
-        <v>0.008703724621427354</v>
+        <v>0.01090974658410459</v>
       </c>
       <c r="J14">
-        <v>0.008703724621427354</v>
+        <v>0.01090974658410459</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>1.03216209631709</v>
+        <v>1.217312</v>
       </c>
       <c r="N14">
-        <v>1.03216209631709</v>
+        <v>3.651936</v>
       </c>
       <c r="O14">
-        <v>0.004692457610613908</v>
+        <v>0.005112503636037949</v>
       </c>
       <c r="P14">
-        <v>0.004692457610613908</v>
+        <v>0.005112503636037948</v>
       </c>
       <c r="Q14">
-        <v>0.2261177250357438</v>
+        <v>0.3899723915306667</v>
       </c>
       <c r="R14">
-        <v>0.2261177250357438</v>
+        <v>3.509751523776</v>
       </c>
       <c r="S14">
-        <v>4.084185884050444E-05</v>
+        <v>5.577611907948732E-05</v>
       </c>
       <c r="T14">
-        <v>4.084185884050444E-05</v>
+        <v>5.577611907948729E-05</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1334,61 +1334,61 @@
         <v>22</v>
       </c>
       <c r="B15" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C15" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D15" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15">
-        <v>0.219071913067304</v>
+        <v>0.3203553333333333</v>
       </c>
       <c r="H15">
-        <v>0.219071913067304</v>
+        <v>0.961066</v>
       </c>
       <c r="I15">
-        <v>0.008703724621427354</v>
+        <v>0.01090974658410459</v>
       </c>
       <c r="J15">
-        <v>0.008703724621427354</v>
+        <v>0.01090974658410459</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>18.4494487474162</v>
+        <v>18.63494233333333</v>
       </c>
       <c r="N15">
-        <v>18.4494487474162</v>
+        <v>55.904827</v>
       </c>
       <c r="O15">
-        <v>0.08387563978114562</v>
+        <v>0.07826359260117714</v>
       </c>
       <c r="P15">
-        <v>0.08387563978114562</v>
+        <v>0.07826359260117714</v>
       </c>
       <c r="Q15">
-        <v>4.041756032133642</v>
+        <v>5.969803162842443</v>
       </c>
       <c r="R15">
-        <v>4.041756032133642</v>
+        <v>53.728228465582</v>
       </c>
       <c r="S15">
-        <v>0.0007300304711011287</v>
+        <v>0.0008538359620404458</v>
       </c>
       <c r="T15">
-        <v>0.0007300304711011287</v>
+        <v>0.0008538359620404455</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1396,61 +1396,61 @@
         <v>22</v>
       </c>
       <c r="B16" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C16" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D16" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F16">
         <v>1</v>
       </c>
       <c r="G16">
-        <v>0.219071913067304</v>
+        <v>0.3203553333333333</v>
       </c>
       <c r="H16">
-        <v>0.219071913067304</v>
+        <v>0.961066</v>
       </c>
       <c r="I16">
-        <v>0.008703724621427354</v>
+        <v>0.01090974658410459</v>
       </c>
       <c r="J16">
-        <v>0.008703724621427354</v>
+        <v>0.01090974658410459</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L16">
         <v>1</v>
       </c>
       <c r="M16">
-        <v>46.5527964767107</v>
+        <v>53.13354766666667</v>
       </c>
       <c r="N16">
-        <v>46.5527964767107</v>
+        <v>159.400643</v>
       </c>
       <c r="O16">
-        <v>0.2116402306400839</v>
+        <v>0.2231518753133371</v>
       </c>
       <c r="P16">
-        <v>0.2116402306400839</v>
+        <v>0.2231518753133371</v>
       </c>
       <c r="Q16">
-        <v>10.19841018278586</v>
+        <v>17.02161537393755</v>
       </c>
       <c r="R16">
-        <v>10.19841018278586</v>
+        <v>153.194538365438</v>
       </c>
       <c r="S16">
-        <v>0.001842058286306662</v>
+        <v>0.002434530409436213</v>
       </c>
       <c r="T16">
-        <v>0.001842058286306662</v>
+        <v>0.002434530409436212</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1458,61 +1458,61 @@
         <v>22</v>
       </c>
       <c r="B17" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C17" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D17" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F17">
         <v>1</v>
       </c>
       <c r="G17">
-        <v>0.219071913067304</v>
+        <v>0.3203553333333333</v>
       </c>
       <c r="H17">
-        <v>0.219071913067304</v>
+        <v>0.961066</v>
       </c>
       <c r="I17">
-        <v>0.008703724621427354</v>
+        <v>0.01090974658410459</v>
       </c>
       <c r="J17">
-        <v>0.008703724621427354</v>
+        <v>0.01090974658410459</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L17">
         <v>1</v>
       </c>
       <c r="M17">
-        <v>51.4440376520692</v>
+        <v>52.47529233333334</v>
       </c>
       <c r="N17">
-        <v>51.4440376520692</v>
+        <v>157.425877</v>
       </c>
       <c r="O17">
-        <v>0.2338769916687587</v>
+        <v>0.2203873147199083</v>
       </c>
       <c r="P17">
-        <v>0.2338769916687587</v>
+        <v>0.2203873147199082</v>
       </c>
       <c r="Q17">
-        <v>11.26994374434522</v>
+        <v>16.81073976720911</v>
       </c>
       <c r="R17">
-        <v>11.26994374434522</v>
+        <v>151.296657904882</v>
       </c>
       <c r="S17">
-        <v>0.002035600930772735</v>
+        <v>0.002404369753945503</v>
       </c>
       <c r="T17">
-        <v>0.002035600930772735</v>
+        <v>0.002404369753945502</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1520,61 +1520,61 @@
         <v>22</v>
       </c>
       <c r="B18" t="s">
+        <v>25</v>
+      </c>
+      <c r="C18" t="s">
+        <v>26</v>
+      </c>
+      <c r="D18" t="s">
         <v>23</v>
       </c>
-      <c r="C18" t="s">
-        <v>24</v>
-      </c>
-      <c r="D18" t="s">
-        <v>27</v>
-      </c>
       <c r="E18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F18">
         <v>1</v>
       </c>
       <c r="G18">
-        <v>0.219071913067304</v>
+        <v>0.3203553333333333</v>
       </c>
       <c r="H18">
-        <v>0.219071913067304</v>
+        <v>0.961066</v>
       </c>
       <c r="I18">
-        <v>0.008703724621427354</v>
+        <v>0.01090974658410459</v>
       </c>
       <c r="J18">
-        <v>0.008703724621427354</v>
+        <v>0.01090974658410459</v>
       </c>
       <c r="K18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L18">
         <v>1</v>
       </c>
       <c r="M18">
-        <v>81.05561817120351</v>
+        <v>84.82882833333333</v>
       </c>
       <c r="N18">
-        <v>81.05561817120351</v>
+        <v>254.486485</v>
       </c>
       <c r="O18">
-        <v>0.3684983722301228</v>
+        <v>0.3562666705782951</v>
       </c>
       <c r="P18">
-        <v>0.3684983722301228</v>
+        <v>0.3562666705782951</v>
       </c>
       <c r="Q18">
-        <v>17.75700933761848</v>
+        <v>27.17536757700111</v>
       </c>
       <c r="R18">
-        <v>17.75700933761848</v>
+        <v>244.57830819301</v>
       </c>
       <c r="S18">
-        <v>0.003207308355335221</v>
+        <v>0.003886779092371871</v>
       </c>
       <c r="T18">
-        <v>0.003207308355335221</v>
+        <v>0.00388677909237187</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1582,61 +1582,805 @@
         <v>22</v>
       </c>
       <c r="B19" t="s">
+        <v>25</v>
+      </c>
+      <c r="C19" t="s">
+        <v>26</v>
+      </c>
+      <c r="D19" t="s">
+        <v>24</v>
+      </c>
+      <c r="E19">
+        <v>3</v>
+      </c>
+      <c r="F19">
+        <v>1</v>
+      </c>
+      <c r="G19">
+        <v>0.3203553333333333</v>
+      </c>
+      <c r="H19">
+        <v>0.961066</v>
+      </c>
+      <c r="I19">
+        <v>0.01090974658410459</v>
+      </c>
+      <c r="J19">
+        <v>0.01090974658410459</v>
+      </c>
+      <c r="K19">
+        <v>3</v>
+      </c>
+      <c r="L19">
+        <v>1</v>
+      </c>
+      <c r="M19">
+        <v>27.81494466666667</v>
+      </c>
+      <c r="N19">
+        <v>83.444834</v>
+      </c>
+      <c r="O19">
+        <v>0.1168180431512444</v>
+      </c>
+      <c r="P19">
+        <v>0.1168180431512444</v>
+      </c>
+      <c r="Q19">
+        <v>8.910665870338221</v>
+      </c>
+      <c r="R19">
+        <v>80.195992833044</v>
+      </c>
+      <c r="S19">
+        <v>0.001274455247231072</v>
+      </c>
+      <c r="T19">
+        <v>0.001274455247231072</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
+      <c r="A20" t="s">
         <v>23</v>
       </c>
-      <c r="C19" t="s">
+      <c r="B20" t="s">
+        <v>25</v>
+      </c>
+      <c r="C20" t="s">
+        <v>26</v>
+      </c>
+      <c r="D20" t="s">
+        <v>20</v>
+      </c>
+      <c r="E20">
+        <v>2</v>
+      </c>
+      <c r="F20">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G20">
+        <v>0.4046196666666667</v>
+      </c>
+      <c r="H20">
+        <v>1.213859</v>
+      </c>
+      <c r="I20">
+        <v>0.01377938047837986</v>
+      </c>
+      <c r="J20">
+        <v>0.01377938047837985</v>
+      </c>
+      <c r="K20">
+        <v>3</v>
+      </c>
+      <c r="L20">
+        <v>1</v>
+      </c>
+      <c r="M20">
+        <v>1.217312</v>
+      </c>
+      <c r="N20">
+        <v>3.651936</v>
+      </c>
+      <c r="O20">
+        <v>0.005112503636037949</v>
+      </c>
+      <c r="P20">
+        <v>0.005112503636037948</v>
+      </c>
+      <c r="Q20">
+        <v>0.4925483756693333</v>
+      </c>
+      <c r="R20">
+        <v>4.432935381024</v>
+      </c>
+      <c r="S20">
+        <v>7.044713279806735E-05</v>
+      </c>
+      <c r="T20">
+        <v>7.044713279806733E-05</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
+      <c r="A21" t="s">
+        <v>23</v>
+      </c>
+      <c r="B21" t="s">
+        <v>25</v>
+      </c>
+      <c r="C21" t="s">
+        <v>26</v>
+      </c>
+      <c r="D21" t="s">
+        <v>21</v>
+      </c>
+      <c r="E21">
+        <v>2</v>
+      </c>
+      <c r="F21">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G21">
+        <v>0.4046196666666667</v>
+      </c>
+      <c r="H21">
+        <v>1.213859</v>
+      </c>
+      <c r="I21">
+        <v>0.01377938047837986</v>
+      </c>
+      <c r="J21">
+        <v>0.01377938047837985</v>
+      </c>
+      <c r="K21">
+        <v>3</v>
+      </c>
+      <c r="L21">
+        <v>1</v>
+      </c>
+      <c r="M21">
+        <v>18.63494233333333</v>
+      </c>
+      <c r="N21">
+        <v>55.904827</v>
+      </c>
+      <c r="O21">
+        <v>0.07826359260117714</v>
+      </c>
+      <c r="P21">
+        <v>0.07826359260117714</v>
+      </c>
+      <c r="Q21">
+        <v>7.540064155265888</v>
+      </c>
+      <c r="R21">
+        <v>67.860577397393</v>
+      </c>
+      <c r="S21">
+        <v>0.001078423820056535</v>
+      </c>
+      <c r="T21">
+        <v>0.001078423820056534</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
+      <c r="A22" t="s">
+        <v>23</v>
+      </c>
+      <c r="B22" t="s">
+        <v>25</v>
+      </c>
+      <c r="C22" t="s">
+        <v>26</v>
+      </c>
+      <c r="D22" t="s">
+        <v>27</v>
+      </c>
+      <c r="E22">
+        <v>2</v>
+      </c>
+      <c r="F22">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G22">
+        <v>0.4046196666666667</v>
+      </c>
+      <c r="H22">
+        <v>1.213859</v>
+      </c>
+      <c r="I22">
+        <v>0.01377938047837986</v>
+      </c>
+      <c r="J22">
+        <v>0.01377938047837985</v>
+      </c>
+      <c r="K22">
+        <v>3</v>
+      </c>
+      <c r="L22">
+        <v>1</v>
+      </c>
+      <c r="M22">
+        <v>53.13354766666667</v>
+      </c>
+      <c r="N22">
+        <v>159.400643</v>
+      </c>
+      <c r="O22">
+        <v>0.2231518753133371</v>
+      </c>
+      <c r="P22">
+        <v>0.2231518753133371</v>
+      </c>
+      <c r="Q22">
+        <v>21.49887834570411</v>
+      </c>
+      <c r="R22">
+        <v>193.489905111337</v>
+      </c>
+      <c r="S22">
+        <v>0.003074894594406453</v>
+      </c>
+      <c r="T22">
+        <v>0.003074894594406452</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
+      <c r="A23" t="s">
+        <v>23</v>
+      </c>
+      <c r="B23" t="s">
+        <v>25</v>
+      </c>
+      <c r="C23" t="s">
+        <v>26</v>
+      </c>
+      <c r="D23" t="s">
+        <v>22</v>
+      </c>
+      <c r="E23">
+        <v>2</v>
+      </c>
+      <c r="F23">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G23">
+        <v>0.4046196666666667</v>
+      </c>
+      <c r="H23">
+        <v>1.213859</v>
+      </c>
+      <c r="I23">
+        <v>0.01377938047837986</v>
+      </c>
+      <c r="J23">
+        <v>0.01377938047837985</v>
+      </c>
+      <c r="K23">
+        <v>3</v>
+      </c>
+      <c r="L23">
+        <v>1</v>
+      </c>
+      <c r="M23">
+        <v>52.47529233333334</v>
+      </c>
+      <c r="N23">
+        <v>157.425877</v>
+      </c>
+      <c r="O23">
+        <v>0.2203873147199083</v>
+      </c>
+      <c r="P23">
+        <v>0.2203873147199082</v>
+      </c>
+      <c r="Q23">
+        <v>21.23253529214922</v>
+      </c>
+      <c r="R23">
+        <v>191.092817629343</v>
+      </c>
+      <c r="S23">
+        <v>0.003036800662134062</v>
+      </c>
+      <c r="T23">
+        <v>0.003036800662134061</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
+      <c r="A24" t="s">
+        <v>23</v>
+      </c>
+      <c r="B24" t="s">
+        <v>25</v>
+      </c>
+      <c r="C24" t="s">
+        <v>26</v>
+      </c>
+      <c r="D24" t="s">
+        <v>23</v>
+      </c>
+      <c r="E24">
+        <v>2</v>
+      </c>
+      <c r="F24">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G24">
+        <v>0.4046196666666667</v>
+      </c>
+      <c r="H24">
+        <v>1.213859</v>
+      </c>
+      <c r="I24">
+        <v>0.01377938047837986</v>
+      </c>
+      <c r="J24">
+        <v>0.01377938047837985</v>
+      </c>
+      <c r="K24">
+        <v>3</v>
+      </c>
+      <c r="L24">
+        <v>1</v>
+      </c>
+      <c r="M24">
+        <v>84.82882833333333</v>
+      </c>
+      <c r="N24">
+        <v>254.486485</v>
+      </c>
+      <c r="O24">
+        <v>0.3562666705782951</v>
+      </c>
+      <c r="P24">
+        <v>0.3562666705782951</v>
+      </c>
+      <c r="Q24">
+        <v>34.32341224395722</v>
+      </c>
+      <c r="R24">
+        <v>308.910710195615</v>
+      </c>
+      <c r="S24">
+        <v>0.004909134005663948</v>
+      </c>
+      <c r="T24">
+        <v>0.004909134005663947</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
+      <c r="A25" t="s">
+        <v>23</v>
+      </c>
+      <c r="B25" t="s">
+        <v>25</v>
+      </c>
+      <c r="C25" t="s">
+        <v>26</v>
+      </c>
+      <c r="D25" t="s">
         <v>24</v>
       </c>
-      <c r="D19" t="s">
+      <c r="E25">
+        <v>2</v>
+      </c>
+      <c r="F25">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G25">
+        <v>0.4046196666666667</v>
+      </c>
+      <c r="H25">
+        <v>1.213859</v>
+      </c>
+      <c r="I25">
+        <v>0.01377938047837986</v>
+      </c>
+      <c r="J25">
+        <v>0.01377938047837985</v>
+      </c>
+      <c r="K25">
+        <v>3</v>
+      </c>
+      <c r="L25">
+        <v>1</v>
+      </c>
+      <c r="M25">
+        <v>27.81494466666667</v>
+      </c>
+      <c r="N25">
+        <v>83.444834</v>
+      </c>
+      <c r="O25">
+        <v>0.1168180431512444</v>
+      </c>
+      <c r="P25">
+        <v>0.1168180431512444</v>
+      </c>
+      <c r="Q25">
+        <v>11.25447363937844</v>
+      </c>
+      <c r="R25">
+        <v>101.290262754406</v>
+      </c>
+      <c r="S25">
+        <v>0.001609680263320793</v>
+      </c>
+      <c r="T25">
+        <v>0.001609680263320793</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20">
+      <c r="A26" t="s">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>25</v>
+      </c>
+      <c r="C26" t="s">
+        <v>26</v>
+      </c>
+      <c r="D26" t="s">
+        <v>20</v>
+      </c>
+      <c r="E26">
+        <v>3</v>
+      </c>
+      <c r="F26">
+        <v>1</v>
+      </c>
+      <c r="G26">
+        <v>0.4035783333333334</v>
+      </c>
+      <c r="H26">
+        <v>1.210735</v>
+      </c>
+      <c r="I26">
+        <v>0.01374391772313855</v>
+      </c>
+      <c r="J26">
+        <v>0.01374391772313855</v>
+      </c>
+      <c r="K26">
+        <v>3</v>
+      </c>
+      <c r="L26">
+        <v>1</v>
+      </c>
+      <c r="M26">
+        <v>1.217312</v>
+      </c>
+      <c r="N26">
+        <v>3.651936</v>
+      </c>
+      <c r="O26">
+        <v>0.005112503636037949</v>
+      </c>
+      <c r="P26">
+        <v>0.005112503636037948</v>
+      </c>
+      <c r="Q26">
+        <v>0.4912807481066667</v>
+      </c>
+      <c r="R26">
+        <v>4.42152673296</v>
+      </c>
+      <c r="S26">
+        <v>7.026582933295225E-05</v>
+      </c>
+      <c r="T26">
+        <v>7.026582933295223E-05</v>
+      </c>
+    </row>
+    <row r="27" spans="1:20">
+      <c r="A27" t="s">
+        <v>24</v>
+      </c>
+      <c r="B27" t="s">
+        <v>25</v>
+      </c>
+      <c r="C27" t="s">
+        <v>26</v>
+      </c>
+      <c r="D27" t="s">
+        <v>21</v>
+      </c>
+      <c r="E27">
+        <v>3</v>
+      </c>
+      <c r="F27">
+        <v>1</v>
+      </c>
+      <c r="G27">
+        <v>0.4035783333333334</v>
+      </c>
+      <c r="H27">
+        <v>1.210735</v>
+      </c>
+      <c r="I27">
+        <v>0.01374391772313855</v>
+      </c>
+      <c r="J27">
+        <v>0.01374391772313855</v>
+      </c>
+      <c r="K27">
+        <v>3</v>
+      </c>
+      <c r="L27">
+        <v>1</v>
+      </c>
+      <c r="M27">
+        <v>18.63494233333333</v>
+      </c>
+      <c r="N27">
+        <v>55.904827</v>
+      </c>
+      <c r="O27">
+        <v>0.07826359260117714</v>
+      </c>
+      <c r="P27">
+        <v>0.07826359260117714</v>
+      </c>
+      <c r="Q27">
+        <v>7.520658968649444</v>
+      </c>
+      <c r="R27">
+        <v>67.685930717845</v>
+      </c>
+      <c r="S27">
+        <v>0.001075648377427814</v>
+      </c>
+      <c r="T27">
+        <v>0.001075648377427813</v>
+      </c>
+    </row>
+    <row r="28" spans="1:20">
+      <c r="A28" t="s">
+        <v>24</v>
+      </c>
+      <c r="B28" t="s">
+        <v>25</v>
+      </c>
+      <c r="C28" t="s">
+        <v>26</v>
+      </c>
+      <c r="D28" t="s">
+        <v>27</v>
+      </c>
+      <c r="E28">
+        <v>3</v>
+      </c>
+      <c r="F28">
+        <v>1</v>
+      </c>
+      <c r="G28">
+        <v>0.4035783333333334</v>
+      </c>
+      <c r="H28">
+        <v>1.210735</v>
+      </c>
+      <c r="I28">
+        <v>0.01374391772313855</v>
+      </c>
+      <c r="J28">
+        <v>0.01374391772313855</v>
+      </c>
+      <c r="K28">
+        <v>3</v>
+      </c>
+      <c r="L28">
+        <v>1</v>
+      </c>
+      <c r="M28">
+        <v>53.13354766666667</v>
+      </c>
+      <c r="N28">
+        <v>159.400643</v>
+      </c>
+      <c r="O28">
+        <v>0.2231518753133371</v>
+      </c>
+      <c r="P28">
+        <v>0.2231518753133371</v>
+      </c>
+      <c r="Q28">
+        <v>21.44354861140056</v>
+      </c>
+      <c r="R28">
+        <v>192.991937502605</v>
+      </c>
+      <c r="S28">
+        <v>0.003066981014070577</v>
+      </c>
+      <c r="T28">
+        <v>0.003066981014070577</v>
+      </c>
+    </row>
+    <row r="29" spans="1:20">
+      <c r="A29" t="s">
+        <v>24</v>
+      </c>
+      <c r="B29" t="s">
+        <v>25</v>
+      </c>
+      <c r="C29" t="s">
+        <v>26</v>
+      </c>
+      <c r="D29" t="s">
         <v>22</v>
       </c>
-      <c r="E19">
-        <v>1</v>
-      </c>
-      <c r="F19">
-        <v>1</v>
-      </c>
-      <c r="G19">
-        <v>0.219071913067304</v>
-      </c>
-      <c r="H19">
-        <v>0.219071913067304</v>
-      </c>
-      <c r="I19">
-        <v>0.008703724621427354</v>
-      </c>
-      <c r="J19">
-        <v>0.008703724621427354</v>
-      </c>
-      <c r="K19">
-        <v>1</v>
-      </c>
-      <c r="L19">
-        <v>1</v>
-      </c>
-      <c r="M19">
-        <v>21.4278804617906</v>
-      </c>
-      <c r="N19">
-        <v>21.4278804617906</v>
-      </c>
-      <c r="O19">
-        <v>0.09741630806927502</v>
-      </c>
-      <c r="P19">
-        <v>0.09741630806927502</v>
-      </c>
-      <c r="Q19">
-        <v>4.694246765741973</v>
-      </c>
-      <c r="R19">
-        <v>4.694246765741973</v>
-      </c>
-      <c r="S19">
-        <v>0.0008478847190711012</v>
-      </c>
-      <c r="T19">
-        <v>0.0008478847190711012</v>
+      <c r="E29">
+        <v>3</v>
+      </c>
+      <c r="F29">
+        <v>1</v>
+      </c>
+      <c r="G29">
+        <v>0.4035783333333334</v>
+      </c>
+      <c r="H29">
+        <v>1.210735</v>
+      </c>
+      <c r="I29">
+        <v>0.01374391772313855</v>
+      </c>
+      <c r="J29">
+        <v>0.01374391772313855</v>
+      </c>
+      <c r="K29">
+        <v>3</v>
+      </c>
+      <c r="L29">
+        <v>1</v>
+      </c>
+      <c r="M29">
+        <v>52.47529233333334</v>
+      </c>
+      <c r="N29">
+        <v>157.425877</v>
+      </c>
+      <c r="O29">
+        <v>0.2203873147199083</v>
+      </c>
+      <c r="P29">
+        <v>0.2203873147199082</v>
+      </c>
+      <c r="Q29">
+        <v>21.17789102106611</v>
+      </c>
+      <c r="R29">
+        <v>190.601019189595</v>
+      </c>
+      <c r="S29">
+        <v>0.003028985120733861</v>
+      </c>
+      <c r="T29">
+        <v>0.00302898512073386</v>
+      </c>
+    </row>
+    <row r="30" spans="1:20">
+      <c r="A30" t="s">
+        <v>24</v>
+      </c>
+      <c r="B30" t="s">
+        <v>25</v>
+      </c>
+      <c r="C30" t="s">
+        <v>26</v>
+      </c>
+      <c r="D30" t="s">
+        <v>23</v>
+      </c>
+      <c r="E30">
+        <v>3</v>
+      </c>
+      <c r="F30">
+        <v>1</v>
+      </c>
+      <c r="G30">
+        <v>0.4035783333333334</v>
+      </c>
+      <c r="H30">
+        <v>1.210735</v>
+      </c>
+      <c r="I30">
+        <v>0.01374391772313855</v>
+      </c>
+      <c r="J30">
+        <v>0.01374391772313855</v>
+      </c>
+      <c r="K30">
+        <v>3</v>
+      </c>
+      <c r="L30">
+        <v>1</v>
+      </c>
+      <c r="M30">
+        <v>84.82882833333333</v>
+      </c>
+      <c r="N30">
+        <v>254.486485</v>
+      </c>
+      <c r="O30">
+        <v>0.3562666705782951</v>
+      </c>
+      <c r="P30">
+        <v>0.3562666705782951</v>
+      </c>
+      <c r="Q30">
+        <v>34.23507715738612</v>
+      </c>
+      <c r="R30">
+        <v>308.115694416475</v>
+      </c>
+      <c r="S30">
+        <v>0.004896499807924594</v>
+      </c>
+      <c r="T30">
+        <v>0.004896499807924594</v>
+      </c>
+    </row>
+    <row r="31" spans="1:20">
+      <c r="A31" t="s">
+        <v>24</v>
+      </c>
+      <c r="B31" t="s">
+        <v>25</v>
+      </c>
+      <c r="C31" t="s">
+        <v>26</v>
+      </c>
+      <c r="D31" t="s">
+        <v>24</v>
+      </c>
+      <c r="E31">
+        <v>3</v>
+      </c>
+      <c r="F31">
+        <v>1</v>
+      </c>
+      <c r="G31">
+        <v>0.4035783333333334</v>
+      </c>
+      <c r="H31">
+        <v>1.210735</v>
+      </c>
+      <c r="I31">
+        <v>0.01374391772313855</v>
+      </c>
+      <c r="J31">
+        <v>0.01374391772313855</v>
+      </c>
+      <c r="K31">
+        <v>3</v>
+      </c>
+      <c r="L31">
+        <v>1</v>
+      </c>
+      <c r="M31">
+        <v>27.81494466666667</v>
+      </c>
+      <c r="N31">
+        <v>83.444834</v>
+      </c>
+      <c r="O31">
+        <v>0.1168180431512444</v>
+      </c>
+      <c r="P31">
+        <v>0.1168180431512444</v>
+      </c>
+      <c r="Q31">
+        <v>11.22550901033222</v>
+      </c>
+      <c r="R31">
+        <v>101.02958109299</v>
+      </c>
+      <c r="S31">
+        <v>0.001605537573648752</v>
+      </c>
+      <c r="T31">
+        <v>0.001605537573648752</v>
       </c>
     </row>
   </sheetData>
